--- a/analysis/post_gemini_data/Participant110/Task2_hard.xlsx
+++ b/analysis/post_gemini_data/Participant110/Task2_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,242 +422,238 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg 2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg 3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg 4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg 5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg 6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>args 1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assing 1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assing 2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>assing 3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>cond body 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>cond body 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>cond body 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>conditionalstatement</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>conditionalstatment1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>External call</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>External call 1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal 1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal 2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal 3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal 4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>literal 5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>loop body 3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>loop body2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>loop1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>loop2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>loop3</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>method call 1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>method call 2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>method call 3</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>method call 4</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>method call 5</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>method call 6</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>method call 7</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>method call 8</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>method call 9</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var name 1</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var name 2</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var name 3</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var name 4</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>var name 5</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>var name 6</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>var name 7</t>
         </is>
@@ -737,42 +721,36 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>23</v>
-      </c>
       <c r="K3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -780,72 +758,56 @@
         <v>24</v>
       </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
         <v>1</v>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
+      <c r="AM3" t="n">
         <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
     </row>
@@ -857,42 +819,36 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>51</v>
-      </c>
       <c r="K4" t="n">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="L4" t="n">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -900,72 +856,56 @@
         <v>301</v>
       </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>4</v>
       </c>
-      <c r="X4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>239</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>217</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>5</v>
-      </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>5</v>
-      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
     </row>
@@ -977,42 +917,36 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>583.92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>792.48</v>
-      </c>
+        <v>1185.03</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1943.64</v>
-      </c>
-      <c r="F5" t="n">
-        <v>517.34</v>
-      </c>
+        <v>3073.27</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>20420.12</v>
+        <v>336.27</v>
       </c>
       <c r="K5" t="n">
-        <v>87073.36</v>
+        <v>27389.6</v>
       </c>
       <c r="L5" t="n">
-        <v>56140.44</v>
+        <v>5389.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1076.14</v>
+        <v>1065.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.26</v>
+        <v>1698</v>
       </c>
       <c r="O5" t="n">
-        <v>15492.23</v>
+        <v>448.36</v>
       </c>
       <c r="P5" t="n">
-        <v>9284.950000000001</v>
+        <v>3558.03</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1020,72 +954,56 @@
         <v>72517.25</v>
       </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>675.62</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>1735.2</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>1535.02</v>
+        <v>240.29</v>
       </c>
       <c r="Y5" t="n">
-        <v>85813.32000000001</v>
+        <v>23851.09</v>
       </c>
       <c r="Z5" t="n">
-        <v>13998.5</v>
+        <v>3155.16</v>
       </c>
       <c r="AA5" t="n">
-        <v>77871.53</v>
+        <v>15184.96</v>
       </c>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>2677.86</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>16974.48</v>
+        <v>1185.03</v>
       </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>8184.13</v>
+        <v>336.27</v>
       </c>
       <c r="AH5" t="n">
-        <v>6947.71</v>
+        <v>336.27</v>
       </c>
       <c r="AI5" t="n">
-        <v>13581.32</v>
+        <v>2722.74</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5747.76</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2344.13</v>
-      </c>
+        <v>1820.23</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>734.17</v>
+        <v>544.64</v>
       </c>
       <c r="AM5" t="n">
-        <v>1201.26</v>
+        <v>1698</v>
       </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="n">
-        <v>49142.36</v>
+        <v>76740.81</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="n">
-        <v>1217.92</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>7040.59</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1802.11</v>
-      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
     </row>
@@ -1097,42 +1015,36 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.34</v>
-      </c>
+        <v>0.44</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.22</v>
-      </c>
+        <v>1.14</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.06</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>8.82</v>
+        <v>0.12</v>
       </c>
       <c r="K6" t="n">
-        <v>37.63</v>
+        <v>10.16</v>
       </c>
       <c r="L6" t="n">
-        <v>24.26</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="O6" t="n">
-        <v>6.69</v>
+        <v>0.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.01</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1140,72 +1052,56 @@
         <v>26.9</v>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.29</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>0.66</v>
+        <v>0.09</v>
       </c>
       <c r="Y6" t="n">
-        <v>37.08</v>
+        <v>8.85</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.05</v>
+        <v>1.17</v>
       </c>
       <c r="AA6" t="n">
-        <v>33.65</v>
+        <v>5.63</v>
       </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>1.16</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>7.35</v>
+        <v>0.44</v>
       </c>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>0.06</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>3.54</v>
+        <v>0.12</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>0.12</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.87</v>
+        <v>1.01</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0.68</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>21.24</v>
+        <v>28.47</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.78</v>
-      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
     </row>
@@ -1217,42 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>291.96</v>
-      </c>
-      <c r="D7" t="n">
-        <v>264.16</v>
-      </c>
+        <v>1185.03</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>971.8200000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>258.67</v>
-      </c>
+        <v>512.21</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>400.39</v>
+        <v>336.27</v>
       </c>
       <c r="K7" t="n">
-        <v>352.52</v>
+        <v>370.13</v>
       </c>
       <c r="L7" t="n">
-        <v>381.91</v>
+        <v>359.3</v>
       </c>
       <c r="M7" t="n">
-        <v>538.0700000000001</v>
+        <v>532.51</v>
       </c>
       <c r="N7" t="n">
-        <v>1201.26</v>
+        <v>424.5</v>
       </c>
       <c r="O7" t="n">
-        <v>418.71</v>
+        <v>224.18</v>
       </c>
       <c r="P7" t="n">
-        <v>343.89</v>
+        <v>355.8</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1260,72 +1150,56 @@
         <v>240.92</v>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>225.21</v>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>433.8</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>307</v>
+        <v>120.15</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.05</v>
+        <v>397.52</v>
       </c>
       <c r="Z7" t="n">
-        <v>482.71</v>
+        <v>450.74</v>
       </c>
       <c r="AA7" t="n">
-        <v>358.85</v>
+        <v>316.35</v>
       </c>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="n">
-        <v>382.55</v>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>435.24</v>
+        <v>1185.03</v>
       </c>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>481.42</v>
+        <v>336.27</v>
       </c>
       <c r="AH7" t="n">
-        <v>408.69</v>
+        <v>336.27</v>
       </c>
       <c r="AI7" t="n">
-        <v>503.01</v>
+        <v>453.79</v>
       </c>
       <c r="AJ7" t="n">
-        <v>478.98</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>468.83</v>
-      </c>
+        <v>455.06</v>
+      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>244.72</v>
+        <v>272.32</v>
       </c>
       <c r="AM7" t="n">
-        <v>1201.26</v>
+        <v>424.5</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>406.14</v>
+        <v>350.41</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="n">
-        <v>608.96</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>541.58</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>360.42</v>
-      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
     </row>
@@ -1337,42 +1211,36 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>450.42</v>
-      </c>
-      <c r="D8" t="n">
-        <v>200.19</v>
-      </c>
+        <v>1185.03</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>742.38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>333.73</v>
-      </c>
+        <v>350.36</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>282.22</v>
+        <v>336.27</v>
       </c>
       <c r="K8" t="n">
-        <v>367.08</v>
+        <v>350.36</v>
       </c>
       <c r="L8" t="n">
-        <v>200.26</v>
+        <v>192.24</v>
       </c>
       <c r="M8" t="n">
-        <v>533.9400000000001</v>
+        <v>712.7</v>
       </c>
       <c r="N8" t="n">
-        <v>1201.26</v>
+        <v>176.4</v>
       </c>
       <c r="O8" t="n">
-        <v>100.13</v>
+        <v>336.27</v>
       </c>
       <c r="P8" t="n">
-        <v>183.58</v>
+        <v>266.57</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1380,72 +1248,56 @@
         <v>233.56</v>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>141.78</v>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>133.44</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>333.69</v>
+        <v>80.13</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.08</v>
+        <v>350.36</v>
       </c>
       <c r="Z8" t="n">
-        <v>133.5</v>
+        <v>192.24</v>
       </c>
       <c r="AA8" t="n">
-        <v>200.26</v>
+        <v>166.88</v>
       </c>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>383.76</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>200.26</v>
+        <v>1185.03</v>
       </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>100.13</v>
+        <v>336.27</v>
       </c>
       <c r="AH8" t="n">
-        <v>282.22</v>
+        <v>336.27</v>
       </c>
       <c r="AI8" t="n">
-        <v>133.5</v>
+        <v>192.24</v>
       </c>
       <c r="AJ8" t="n">
-        <v>467.18</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>600.62</v>
-      </c>
+        <v>266.57</v>
+      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>333.73</v>
+        <v>160.22</v>
       </c>
       <c r="AM8" t="n">
-        <v>1201.26</v>
+        <v>176.4</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="n">
-        <v>500.5</v>
+        <v>350.36</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="n">
-        <v>900.92</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>383.56</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>917.62</v>
-      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
     </row>
